--- a/Group_member_List.xlsx
+++ b/Group_member_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STM32\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7986ED0-7D8C-483C-A9CA-BF8324FC2C29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC707B75-C275-434C-9799-01430126E057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>STT</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>Họ và Tên</t>
+  </si>
+  <si>
+    <t>Thiết kế hệ thống nhúng - 129087</t>
   </si>
 </sst>
 </file>
@@ -76,7 +79,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -99,16 +102,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -389,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -402,62 +417,72 @@
     <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2">
-        <v>20181591</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="C3" s="2">
-        <v>20181396</v>
+        <v>20181591</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="C4" s="2">
-        <v>20181795</v>
+        <v>20181396</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2">
+        <v>20181795</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C6" s="2">
         <v>20181535</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
